--- a/out/CE/FigA_15.xlsx
+++ b/out/CE/FigA_15.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D30829-6859-4118-9E7E-5D89B296BDF1}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.87251999999999996</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="B1">
-        <v>0.84386000000000005</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="C1">
-        <v>0.85819000000000001</v>
+        <v>0.87031999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.87241999999999997</v>
+      </c>
+      <c r="E1">
+        <v>0.87158000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="G1">
+        <v>0.86585999999999996</v>
+      </c>
+      <c r="H1">
+        <v>0.84652000000000005</v>
+      </c>
+      <c r="I1">
+        <v>0.87124000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.87556</v>
+      </c>
+      <c r="K1">
+        <v>0.87875999999999999</v>
+      </c>
+      <c r="L1">
+        <v>0.86375999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.86292000000000002</v>
+      </c>
+      <c r="N1">
+        <v>0.86941999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0.86983999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="Q1">
+        <v>0.88</v>
+      </c>
+      <c r="R1">
+        <v>0.8619</v>
+      </c>
+      <c r="S1">
+        <v>0.88046000000000002</v>
+      </c>
+      <c r="T1">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="U1">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.87631999999999999</v>
+      </c>
+      <c r="X1">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="Y1">
+        <v>0.87265999999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="AA1">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="AB1">
+        <v>0.87605999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.85607999999999995</v>
+      </c>
+      <c r="AD1">
+        <v>0.84921999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="AF1">
+        <v>0.87761999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="AH1">
+        <v>0.85431999999999997</v>
+      </c>
+      <c r="AI1">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83457999999999999</v>
+      </c>
+      <c r="AK1">
+        <v>0.89363999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.87378</v>
+      </c>
+      <c r="AN1">
+        <v>0.87382000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.84721999999999997</v>
+      </c>
+      <c r="AP1">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="AR1">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="AS1">
+        <v>0.88382000000000005</v>
+      </c>
+      <c r="AT1">
+        <v>0.85982000000000003</v>
+      </c>
+      <c r="AU1">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="AV1">
+        <v>0.86695999999999995</v>
+      </c>
+      <c r="AW1">
+        <v>0.88246000000000002</v>
+      </c>
+      <c r="AX1">
+        <v>0.87644</v>
+      </c>
+      <c r="AY1">
+        <v>0.86858000000000002</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87665999999999999</v>
+      </c>
+      <c r="BA1">
+        <v>0.83242000000000005</v>
+      </c>
+      <c r="BB1">
+        <v>0.86721999999999999</v>
+      </c>
+      <c r="BC1">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="BD1">
+        <v>0.86997999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="BF1">
+        <v>0.87826000000000004</v>
+      </c>
+      <c r="BG1">
+        <v>0.86104000000000003</v>
+      </c>
+      <c r="BH1">
+        <v>0.88426000000000005</v>
+      </c>
+      <c r="BI1">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84918000000000005</v>
+      </c>
+      <c r="BK1">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="BL1">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="BM1">
+        <v>0.85797999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="BO1">
+        <v>0.87536000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.86294000000000004</v>
+      </c>
+      <c r="BQ1">
+        <v>0.84314</v>
+      </c>
+      <c r="BR1">
+        <v>0.85175999999999996</v>
+      </c>
+      <c r="BS1">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="BT1">
+        <v>0.82935999999999999</v>
+      </c>
+      <c r="BU1">
+        <v>0.84174000000000004</v>
+      </c>
+      <c r="BV1">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="BW1">
+        <v>0.86016000000000004</v>
+      </c>
+      <c r="BX1">
+        <v>0.87961999999999996</v>
+      </c>
+      <c r="BY1">
+        <v>0.88324000000000003</v>
+      </c>
+      <c r="BZ1">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="CC1">
+        <v>0.86848000000000003</v>
+      </c>
+      <c r="CD1">
+        <v>0.87056</v>
+      </c>
+      <c r="CE1">
+        <v>0.85724</v>
+      </c>
+      <c r="CF1">
+        <v>0.84936</v>
+      </c>
+      <c r="CG1">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="CI1">
+        <v>0.84843999999999997</v>
+      </c>
+      <c r="CJ1">
+        <v>0.88073999999999997</v>
+      </c>
+      <c r="CK1">
+        <v>0.87138000000000004</v>
+      </c>
+      <c r="CL1">
+        <v>0.85216000000000003</v>
+      </c>
+      <c r="CM1">
+        <v>0.87341999999999997</v>
+      </c>
+      <c r="CN1">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="CO1">
+        <v>0.88182000000000005</v>
+      </c>
+      <c r="CP1">
+        <v>0.84296000000000004</v>
+      </c>
+      <c r="CQ1">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="CR1">
+        <v>0.86624000000000001</v>
+      </c>
+      <c r="CS1">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="CT1">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="CU1">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="CV1">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="CW1">
+        <v>0.86548799999999981</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87883999999999995</v>
+        <v>0.85728000000000004</v>
       </c>
       <c r="B2">
-        <v>0.85982000000000003</v>
+        <v>0.86528000000000005</v>
       </c>
       <c r="C2">
-        <v>0.86932999999999994</v>
+        <v>0.87722</v>
+      </c>
+      <c r="D2">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.88031999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.86148000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.87082000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.83623999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.87514000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.86541999999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.85907999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.86172000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.876</v>
+      </c>
+      <c r="W2">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.83592</v>
+      </c>
+      <c r="Y2">
+        <v>0.87402000000000002</v>
+      </c>
+      <c r="Z2">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="AA2">
+        <v>0.87538000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.84136</v>
+      </c>
+      <c r="AC2">
+        <v>0.87226000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="AE2">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="AG2">
+        <v>0.86551999999999996</v>
+      </c>
+      <c r="AH2">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.83287999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="AK2">
+        <v>0.85024</v>
+      </c>
+      <c r="AL2">
+        <v>0.88063999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.86782000000000004</v>
+      </c>
+      <c r="AN2">
+        <v>0.87424000000000002</v>
+      </c>
+      <c r="AO2">
+        <v>0.87422</v>
+      </c>
+      <c r="AP2">
+        <v>0.84441999999999995</v>
+      </c>
+      <c r="AQ2">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>0.85187999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>0.88192000000000004</v>
+      </c>
+      <c r="AT2">
+        <v>0.87107999999999997</v>
+      </c>
+      <c r="AU2">
+        <v>0.85821999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>0.86251999999999995</v>
+      </c>
+      <c r="AW2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.83535999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.86834</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86692000000000002</v>
+      </c>
+      <c r="BA2">
+        <v>0.86978</v>
+      </c>
+      <c r="BB2">
+        <v>0.87473999999999996</v>
+      </c>
+      <c r="BC2">
+        <v>0.88026000000000004</v>
+      </c>
+      <c r="BD2">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="BE2">
+        <v>0.84907999999999995</v>
+      </c>
+      <c r="BF2">
+        <v>0.87426000000000004</v>
+      </c>
+      <c r="BG2">
+        <v>0.87468000000000001</v>
+      </c>
+      <c r="BH2">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="BI2">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="BK2">
+        <v>0.86568000000000001</v>
+      </c>
+      <c r="BL2">
+        <v>0.86985999999999997</v>
+      </c>
+      <c r="BM2">
+        <v>0.87324000000000002</v>
+      </c>
+      <c r="BN2">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.84684000000000004</v>
+      </c>
+      <c r="BP2">
+        <v>0.88802000000000003</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="BR2">
+        <v>0.86663999999999997</v>
+      </c>
+      <c r="BS2">
+        <v>0.86865999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>0.87782000000000004</v>
+      </c>
+      <c r="BV2">
+        <v>0.87161999999999995</v>
+      </c>
+      <c r="BW2">
+        <v>0.84514</v>
+      </c>
+      <c r="BX2">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="BY2">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="BZ2">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.83911999999999998</v>
+      </c>
+      <c r="CB2">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.88848000000000005</v>
+      </c>
+      <c r="CD2">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="CE2">
+        <v>0.86543999999999999</v>
+      </c>
+      <c r="CF2">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="CG2">
+        <v>0.87485999999999997</v>
+      </c>
+      <c r="CH2">
+        <v>0.87073999999999996</v>
+      </c>
+      <c r="CI2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="CK2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="CL2">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="CN2">
+        <v>0.87456</v>
+      </c>
+      <c r="CO2">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="CP2">
+        <v>0.87204000000000004</v>
+      </c>
+      <c r="CQ2">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="CR2">
+        <v>0.84597999999999995</v>
+      </c>
+      <c r="CS2">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="CT2">
+        <v>0.83967999999999998</v>
+      </c>
+      <c r="CU2">
+        <v>0.85721999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.88617999999999997</v>
+      </c>
+      <c r="CW2">
+        <v>0.8640580000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.87504000000000004</v>
+      </c>
+      <c r="B3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.84772000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.85977999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.83406000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.83501999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.86882000000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.83467999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.86772000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.86902000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.85218000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.86695999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.84697999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>0.86436000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="S3">
+        <v>0.84248000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.83155999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.8488</v>
+      </c>
+      <c r="W3">
+        <v>0.87641999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.85406000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0.86234</v>
+      </c>
+      <c r="AB3">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>0.87461999999999995</v>
+      </c>
+      <c r="AD3">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.87146000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.86512</v>
+      </c>
+      <c r="AJ3">
+        <v>0.81723999999999997</v>
+      </c>
+      <c r="AK3">
+        <v>0.86748000000000003</v>
+      </c>
+      <c r="AL3">
+        <v>0.85468</v>
+      </c>
+      <c r="AM3">
+        <v>0.86373999999999995</v>
+      </c>
+      <c r="AN3">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="AO3">
+        <v>0.85328000000000004</v>
+      </c>
+      <c r="AP3">
+        <v>0.87941999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.84952000000000005</v>
+      </c>
+      <c r="AR3">
+        <v>0.85302</v>
+      </c>
+      <c r="AS3">
+        <v>0.84636</v>
+      </c>
+      <c r="AT3">
+        <v>0.85524</v>
+      </c>
+      <c r="AU3">
+        <v>0.87961999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="AW3">
+        <v>0.83477999999999997</v>
+      </c>
+      <c r="AX3">
+        <v>0.86546000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.85326000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87456</v>
+      </c>
+      <c r="BA3">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="BB3">
+        <v>0.85318000000000005</v>
+      </c>
+      <c r="BC3">
+        <v>0.86577999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.83296000000000003</v>
+      </c>
+      <c r="BE3">
+        <v>0.83918000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="BG3">
+        <v>0.85202</v>
+      </c>
+      <c r="BH3">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="BI3">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="BK3">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="BL3">
+        <v>0.83831999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.84196000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="BO3">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="BP3">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="BQ3">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="BR3">
+        <v>0.86363999999999996</v>
+      </c>
+      <c r="BS3">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.87451999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.86658000000000002</v>
+      </c>
+      <c r="BX3">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="BY3">
+        <v>0.85158</v>
+      </c>
+      <c r="BZ3">
+        <v>0.87526000000000004</v>
+      </c>
+      <c r="CA3">
+        <v>0.86072000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.87597999999999998</v>
+      </c>
+      <c r="CC3">
+        <v>0.84153999999999995</v>
+      </c>
+      <c r="CD3">
+        <v>0.86097999999999997</v>
+      </c>
+      <c r="CE3">
+        <v>0.83557999999999999</v>
+      </c>
+      <c r="CF3">
+        <v>0.87644</v>
+      </c>
+      <c r="CG3">
+        <v>0.8508</v>
+      </c>
+      <c r="CH3">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="CI3">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="CJ3">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="CK3">
+        <v>0.85558000000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.82247999999999999</v>
+      </c>
+      <c r="CM3">
+        <v>0.84486000000000006</v>
+      </c>
+      <c r="CN3">
+        <v>0.85341999999999996</v>
+      </c>
+      <c r="CO3">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="CQ3">
+        <v>0.86258000000000001</v>
+      </c>
+      <c r="CR3">
+        <v>0.87346000000000001</v>
+      </c>
+      <c r="CS3">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="CT3">
+        <v>0.84526000000000001</v>
+      </c>
+      <c r="CU3">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="CV3">
+        <v>0.86262000000000005</v>
+      </c>
+      <c r="CW3">
+        <v>0.85466319999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.87648000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.87307999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.85618000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.84077999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.84928000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.84126000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.83855999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.84067999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.85124</v>
+      </c>
+      <c r="M4">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="O4">
+        <v>0.87161999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>0.87128000000000005</v>
+      </c>
+      <c r="R4">
+        <v>0.85768</v>
+      </c>
+      <c r="S4">
+        <v>0.86038000000000003</v>
+      </c>
+      <c r="T4">
+        <v>0.86475999999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="V4">
+        <v>0.84148000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.87517999999999996</v>
+      </c>
+      <c r="X4">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.83101999999999998</v>
+      </c>
+      <c r="Z4">
+        <v>0.85702</v>
+      </c>
+      <c r="AA4">
+        <v>0.85614000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.84992000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.85463999999999996</v>
+      </c>
+      <c r="AF4">
+        <v>0.84452000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>0.87156</v>
+      </c>
+      <c r="AH4">
+        <v>0.85404000000000002</v>
+      </c>
+      <c r="AI4">
+        <v>0.86192000000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>0.84155999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>0.85862000000000005</v>
+      </c>
+      <c r="AL4">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.86377999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>0.84965999999999997</v>
+      </c>
+      <c r="AO4">
+        <v>0.83535999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="AS4">
+        <v>0.86265999999999998</v>
+      </c>
+      <c r="AT4">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>0.8236</v>
+      </c>
+      <c r="AV4">
+        <v>0.85907999999999995</v>
+      </c>
+      <c r="AW4">
+        <v>0.85197999999999996</v>
+      </c>
+      <c r="AX4">
+        <v>0.83582000000000001</v>
+      </c>
+      <c r="AY4">
+        <v>0.84936</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87165999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="BB4">
+        <v>0.85618000000000005</v>
+      </c>
+      <c r="BC4">
+        <v>0.87814000000000003</v>
+      </c>
+      <c r="BD4">
+        <v>0.83262000000000003</v>
+      </c>
+      <c r="BE4">
+        <v>0.86682000000000003</v>
+      </c>
+      <c r="BF4">
+        <v>0.82177999999999995</v>
+      </c>
+      <c r="BG4">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="BH4">
+        <v>0.85658000000000001</v>
+      </c>
+      <c r="BI4">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="BJ4">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="BK4">
+        <v>0.87073999999999996</v>
+      </c>
+      <c r="BL4">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="BM4">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="BN4">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="BO4">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="BP4">
+        <v>0.87253999999999998</v>
+      </c>
+      <c r="BQ4">
+        <v>0.83767999999999998</v>
+      </c>
+      <c r="BR4">
+        <v>0.8357</v>
+      </c>
+      <c r="BS4">
+        <v>0.85106000000000004</v>
+      </c>
+      <c r="BT4">
+        <v>0.83475999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="BV4">
+        <v>0.82382</v>
+      </c>
+      <c r="BW4">
+        <v>0.84806000000000004</v>
+      </c>
+      <c r="BX4">
+        <v>0.85124</v>
+      </c>
+      <c r="BY4">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="BZ4">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86834</v>
+      </c>
+      <c r="CB4">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="CC4">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="CD4">
+        <v>0.83023999999999998</v>
+      </c>
+      <c r="CE4">
+        <v>0.87807999999999997</v>
+      </c>
+      <c r="CF4">
+        <v>0.85804000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="CH4">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="CI4">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="CJ4">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="CK4">
+        <v>0.86814000000000002</v>
+      </c>
+      <c r="CL4">
+        <v>0.86033999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.86858000000000002</v>
+      </c>
+      <c r="CN4">
+        <v>0.87424000000000002</v>
+      </c>
+      <c r="CO4">
+        <v>0.87356</v>
+      </c>
+      <c r="CP4">
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86448000000000003</v>
+      </c>
+      <c r="CR4">
+        <v>0.87834000000000001</v>
+      </c>
+      <c r="CS4">
+        <v>0.83628000000000002</v>
+      </c>
+      <c r="CT4">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="CU4">
+        <v>0.86507999999999996</v>
+      </c>
+      <c r="CV4">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="CW4">
+        <v>0.85370179999999973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.86597999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.86146</v>
+      </c>
+      <c r="I5">
+        <v>0.87773999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.81496999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.8518</v>
+      </c>
+      <c r="L5">
+        <v>0.8367</v>
+      </c>
+      <c r="M5">
+        <v>0.83218000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.86441999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.82194</v>
+      </c>
+      <c r="P5">
+        <v>0.83697999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.84465999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.84043999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0.85211999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.86621999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.85751999999999995</v>
+      </c>
+      <c r="AB5">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="AC5">
+        <v>0.86234</v>
+      </c>
+      <c r="AD5">
+        <v>0.8528</v>
+      </c>
+      <c r="AE5">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.83777999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="AI5">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84433999999999998</v>
+      </c>
+      <c r="AK5">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="AL5">
+        <v>0.86168</v>
+      </c>
+      <c r="AM5">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="AN5">
+        <v>0.82645999999999997</v>
+      </c>
+      <c r="AO5">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="AP5">
+        <v>0.84262000000000004</v>
+      </c>
+      <c r="AQ5">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>0.85806000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>0.85502</v>
+      </c>
+      <c r="AT5">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="AU5">
+        <v>0.87446000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="AW5">
+        <v>0.84723999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="AY5">
+        <v>0.8518</v>
+      </c>
+      <c r="AZ5">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="BA5">
+        <v>0.85155999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="BC5">
+        <v>0.82225999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="BE5">
+        <v>0.82854000000000005</v>
+      </c>
+      <c r="BF5">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="BG5">
+        <v>0.86141999999999996</v>
+      </c>
+      <c r="BH5">
+        <v>0.84596000000000005</v>
+      </c>
+      <c r="BI5">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="BJ5">
+        <v>0.83914</v>
+      </c>
+      <c r="BK5">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="BL5">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="BM5">
+        <v>0.83342000000000005</v>
+      </c>
+      <c r="BN5">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.84501999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.86843999999999999</v>
+      </c>
+      <c r="BR5">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.82723999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.86043999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>0.82532000000000005</v>
+      </c>
+      <c r="BV5">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="BW5">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="BX5">
+        <v>0.84196000000000004</v>
+      </c>
+      <c r="BY5">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="BZ5">
+        <v>0.84008000000000005</v>
+      </c>
+      <c r="CA5">
+        <v>0.81962000000000002</v>
+      </c>
+      <c r="CB5">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="CC5">
+        <v>0.84916000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="CE5">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="CF5">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>0.84474000000000005</v>
+      </c>
+      <c r="CH5">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="CI5">
+        <v>0.83472000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>0.84096000000000004</v>
+      </c>
+      <c r="CK5">
+        <v>0.84501999999999999</v>
+      </c>
+      <c r="CL5">
+        <v>0.82972000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>0.83816000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>0.83875999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.85024</v>
+      </c>
+      <c r="CP5">
+        <v>0.83038000000000001</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84784000000000004</v>
+      </c>
+      <c r="CR5">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>0.84258</v>
+      </c>
+      <c r="CT5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="CU5">
+        <v>0.84655999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.83155999999999997</v>
+      </c>
+      <c r="CW5">
+        <v>0.84696930000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.85724</v>
+      </c>
+      <c r="B6">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.86107999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.82518000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.84448000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.80513999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.85165999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.86007999999999996</v>
+      </c>
+      <c r="U6">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="V6">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="W6">
+        <v>0.85616000000000003</v>
+      </c>
+      <c r="X6">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="AA6">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="AB6">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="AD6">
+        <v>0.8458</v>
+      </c>
+      <c r="AE6">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>0.85087999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.83804000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.81281999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.86292000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.81537999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.84521999999999997</v>
+      </c>
+      <c r="AM6">
+        <v>0.84902</v>
+      </c>
+      <c r="AN6">
+        <v>0.83228000000000002</v>
+      </c>
+      <c r="AO6">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.84297999999999995</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84192</v>
+      </c>
+      <c r="AR6">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="AS6">
+        <v>0.83416000000000001</v>
+      </c>
+      <c r="AT6">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AV6">
+        <v>0.86</v>
+      </c>
+      <c r="AW6">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="AX6">
+        <v>0.85902000000000001</v>
+      </c>
+      <c r="AY6">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="AZ6">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.82818000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="BD6">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="BE6">
+        <v>0.82674000000000003</v>
+      </c>
+      <c r="BF6">
+        <v>0.85455999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BH6">
+        <v>0.86384000000000005</v>
+      </c>
+      <c r="BI6">
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="BJ6">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="BK6">
+        <v>0.84192</v>
+      </c>
+      <c r="BL6">
+        <v>0.83196000000000003</v>
+      </c>
+      <c r="BM6">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="BN6">
+        <v>0.85355999999999999</v>
+      </c>
+      <c r="BO6">
+        <v>0.8528</v>
+      </c>
+      <c r="BP6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.8458</v>
+      </c>
+      <c r="BR6">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="BS6">
+        <v>0.84596000000000005</v>
+      </c>
+      <c r="BT6">
+        <v>0.87134</v>
+      </c>
+      <c r="BU6">
+        <v>0.83257999999999999</v>
+      </c>
+      <c r="BV6">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="BW6">
+        <v>0.84862000000000004</v>
+      </c>
+      <c r="BX6">
+        <v>0.83796000000000004</v>
+      </c>
+      <c r="BY6">
+        <v>0.83431999999999995</v>
+      </c>
+      <c r="BZ6">
+        <v>0.85894000000000004</v>
+      </c>
+      <c r="CA6">
+        <v>0.8528</v>
+      </c>
+      <c r="CB6">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="CC6">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="CD6">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="CE6">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="CF6">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="CG6">
+        <v>0.85382000000000002</v>
+      </c>
+      <c r="CH6">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.84738000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.84765999999999997</v>
+      </c>
+      <c r="CM6">
+        <v>0.87017999999999995</v>
+      </c>
+      <c r="CN6">
+        <v>0.8488</v>
+      </c>
+      <c r="CO6">
+        <v>0.84436</v>
+      </c>
+      <c r="CP6">
+        <v>0.84933999999999998</v>
+      </c>
+      <c r="CQ6">
+        <v>0.85602</v>
+      </c>
+      <c r="CR6">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>0.81525999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="CU6">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="CV6">
+        <v>0.84238000000000002</v>
+      </c>
+      <c r="CW6">
+        <v>0.84808580000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.82438</v>
+      </c>
+      <c r="B7">
+        <v>0.85275999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.83528000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.84743999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.81274000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.86475999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.84636</v>
+      </c>
+      <c r="I7">
+        <v>0.84858</v>
+      </c>
+      <c r="J7">
+        <v>0.84308000000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.82355999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.86221999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.84175999999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.83664000000000005</v>
+      </c>
+      <c r="R7">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.82467999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.83035999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.81428</v>
+      </c>
+      <c r="V7">
+        <v>0.83582000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.84023999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.84255999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.81352000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="AA7">
+        <v>0.83308000000000004</v>
+      </c>
+      <c r="AB7">
+        <v>0.85594000000000003</v>
+      </c>
+      <c r="AC7">
+        <v>0.83094000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.82428000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.84958</v>
+      </c>
+      <c r="AI7">
+        <v>0.83718000000000004</v>
+      </c>
+      <c r="AJ7">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="AK7">
+        <v>0.84708000000000006</v>
+      </c>
+      <c r="AL7">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.86204000000000003</v>
+      </c>
+      <c r="AN7">
+        <v>0.82876000000000005</v>
+      </c>
+      <c r="AO7">
+        <v>0.83211999999999997</v>
+      </c>
+      <c r="AP7">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="AQ7">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="AR7">
+        <v>0.81332000000000004</v>
+      </c>
+      <c r="AS7">
+        <v>0.86641999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.84186000000000005</v>
+      </c>
+      <c r="AU7">
+        <v>0.85572000000000004</v>
+      </c>
+      <c r="AV7">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="AW7">
+        <v>0.83077999999999996</v>
+      </c>
+      <c r="AX7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="AZ7">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="BA7">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="BB7">
+        <v>0.85463999999999996</v>
+      </c>
+      <c r="BC7">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="BD7">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="BE7">
+        <v>0.83094000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="BG7">
+        <v>0.82764000000000004</v>
+      </c>
+      <c r="BH7">
+        <v>0.82733999999999996</v>
+      </c>
+      <c r="BI7">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="BJ7">
+        <v>0.83138000000000001</v>
+      </c>
+      <c r="BK7">
+        <v>0.84064000000000005</v>
+      </c>
+      <c r="BL7">
+        <v>0.83708000000000005</v>
+      </c>
+      <c r="BM7">
+        <v>0.83792</v>
+      </c>
+      <c r="BN7">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="BO7">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="BP7">
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>0.83897999999999995</v>
+      </c>
+      <c r="BR7">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="BS7">
+        <v>0.86007999999999996</v>
+      </c>
+      <c r="BT7">
+        <v>0.83997999999999995</v>
+      </c>
+      <c r="BU7">
+        <v>0.81006</v>
+      </c>
+      <c r="BV7">
+        <v>0.84907999999999995</v>
+      </c>
+      <c r="BW7">
+        <v>0.83296000000000003</v>
+      </c>
+      <c r="BX7">
+        <v>0.82952000000000004</v>
+      </c>
+      <c r="BY7">
+        <v>0.84872000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.85446</v>
+      </c>
+      <c r="CA7">
+        <v>0.83838000000000001</v>
+      </c>
+      <c r="CB7">
+        <v>0.85507999999999995</v>
+      </c>
+      <c r="CC7">
+        <v>0.81654000000000004</v>
+      </c>
+      <c r="CD7">
+        <v>0.85094000000000003</v>
+      </c>
+      <c r="CE7">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="CF7">
+        <v>0.82099</v>
+      </c>
+      <c r="CG7">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="CH7">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="CI7">
+        <v>0.86851999999999996</v>
+      </c>
+      <c r="CJ7">
+        <v>0.83801999999999999</v>
+      </c>
+      <c r="CK7">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="CL7">
+        <v>0.86316000000000004</v>
+      </c>
+      <c r="CM7">
+        <v>0.83945999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="CO7">
+        <v>0.84252000000000005</v>
+      </c>
+      <c r="CP7">
+        <v>0.85636000000000001</v>
+      </c>
+      <c r="CQ7">
+        <v>0.81962000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="CS7">
+        <v>0.84508000000000005</v>
+      </c>
+      <c r="CT7">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="CU7">
+        <v>0.82852000000000003</v>
+      </c>
+      <c r="CV7">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="CW7">
+        <v>0.84245569999999959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="B8">
+        <v>0.83797999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.84201999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.84275999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.82484000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.82345999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.83048</v>
+      </c>
+      <c r="K8">
+        <v>0.83987999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.83428000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.84782000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.83806000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.82831999999999995</v>
+      </c>
+      <c r="Q8">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="R8">
+        <v>0.81306</v>
+      </c>
+      <c r="S8">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.83945999999999998</v>
+      </c>
+      <c r="U8">
+        <v>0.84426000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.85760999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.85646</v>
+      </c>
+      <c r="X8">
+        <v>0.83765999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="Z8">
+        <v>0.82787999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.82855999999999996</v>
+      </c>
+      <c r="AB8">
+        <v>0.84355999999999998</v>
+      </c>
+      <c r="AC8">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="AD8">
+        <v>0.82418000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.84065999999999996</v>
+      </c>
+      <c r="AG8">
+        <v>0.82201999999999997</v>
+      </c>
+      <c r="AH8">
+        <v>0.82742000000000004</v>
+      </c>
+      <c r="AI8">
+        <v>0.83797999999999995</v>
+      </c>
+      <c r="AJ8">
+        <v>0.83945999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.8296</v>
+      </c>
+      <c r="AL8">
+        <v>0.83952000000000004</v>
+      </c>
+      <c r="AM8">
+        <v>0.82732000000000006</v>
+      </c>
+      <c r="AN8">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="AO8">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="AP8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AQ8">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="AR8">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="AS8">
+        <v>0.84853999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="AV8">
+        <v>0.83072000000000001</v>
+      </c>
+      <c r="AW8">
+        <v>0.84518000000000004</v>
+      </c>
+      <c r="AX8">
+        <v>0.82723999999999998</v>
+      </c>
+      <c r="AY8">
+        <v>0.84494000000000002</v>
+      </c>
+      <c r="AZ8">
+        <v>0.81074000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.83098000000000005</v>
+      </c>
+      <c r="BB8">
+        <v>0.84062000000000003</v>
+      </c>
+      <c r="BC8">
+        <v>0.82425999999999999</v>
+      </c>
+      <c r="BD8">
+        <v>0.84758</v>
+      </c>
+      <c r="BE8">
+        <v>0.80684</v>
+      </c>
+      <c r="BF8">
+        <v>0.84575999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.82991999999999999</v>
+      </c>
+      <c r="BH8">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="BI8">
+        <v>0.82745999999999997</v>
+      </c>
+      <c r="BJ8">
+        <v>0.83621999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="BL8">
+        <v>0.83508000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.83243999999999996</v>
+      </c>
+      <c r="BN8">
+        <v>0.82521999999999995</v>
+      </c>
+      <c r="BO8">
+        <v>0.83992</v>
+      </c>
+      <c r="BP8">
+        <v>0.84036</v>
+      </c>
+      <c r="BQ8">
+        <v>0.86314000000000002</v>
+      </c>
+      <c r="BR8">
+        <v>0.84148000000000001</v>
+      </c>
+      <c r="BS8">
+        <v>0.83328000000000002</v>
+      </c>
+      <c r="BT8">
+        <v>0.83184000000000002</v>
+      </c>
+      <c r="BU8">
+        <v>0.84616000000000002</v>
+      </c>
+      <c r="BV8">
+        <v>0.82672000000000001</v>
+      </c>
+      <c r="BW8">
+        <v>0.84523999999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.82894000000000001</v>
+      </c>
+      <c r="BY8">
+        <v>0.83864000000000005</v>
+      </c>
+      <c r="BZ8">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="CA8">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="CB8">
+        <v>0.80923999999999996</v>
+      </c>
+      <c r="CC8">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="CD8">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="CE8">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="CF8">
         <v>0.84114</v>
       </c>
-      <c r="B3">
-        <v>0.86058000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.85085999999999995</v>
+      <c r="CG8">
+        <v>0.83714</v>
+      </c>
+      <c r="CH8">
+        <v>0.84194000000000002</v>
+      </c>
+      <c r="CI8">
+        <v>0.81945999999999997</v>
+      </c>
+      <c r="CJ8">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="CK8">
+        <v>0.83721999999999996</v>
+      </c>
+      <c r="CL8">
+        <v>0.80503000000000002</v>
+      </c>
+      <c r="CM8">
+        <v>0.84336</v>
+      </c>
+      <c r="CN8">
+        <v>0.84267999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>0.86607999999999996</v>
+      </c>
+      <c r="CP8">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="CQ8">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="CR8">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="CS8">
+        <v>0.82264000000000004</v>
+      </c>
+      <c r="CT8">
+        <v>0.83511999999999997</v>
+      </c>
+      <c r="CU8">
+        <v>0.83838000000000001</v>
+      </c>
+      <c r="CV8">
+        <v>0.83664000000000005</v>
+      </c>
+      <c r="CW8">
+        <v>0.8376880000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.82113999999999998</v>
-      </c>
-      <c r="B4">
-        <v>0.87136000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.84624999999999995</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.85436000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.84614</v>
+      </c>
+      <c r="C9">
+        <v>0.84948000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.84848000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.82272000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.83028000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.84123999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.82223999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.82001999999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.84323999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.81876000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.83584000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="P9">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.84492</v>
+      </c>
+      <c r="S9">
+        <v>0.83714</v>
+      </c>
+      <c r="T9">
+        <v>0.85141999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.83455999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.83331999999999995</v>
+      </c>
+      <c r="W9">
+        <v>0.85036</v>
+      </c>
+      <c r="X9">
+        <v>0.83433999999999997</v>
+      </c>
+      <c r="Y9">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="Z9">
+        <v>0.82664000000000004</v>
+      </c>
+      <c r="AA9">
+        <v>0.86168</v>
+      </c>
+      <c r="AB9">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="AC9">
+        <v>0.84216000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>0.85592000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.83484000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.85087999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="AI9">
+        <v>0.85694000000000004</v>
+      </c>
+      <c r="AJ9">
+        <v>0.8458</v>
+      </c>
+      <c r="AK9">
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="AL9">
+        <v>0.83387999999999995</v>
+      </c>
+      <c r="AM9">
+        <v>0.84616000000000002</v>
+      </c>
+      <c r="AN9">
+        <v>0.83904000000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>0.84114</v>
+      </c>
+      <c r="AQ9">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>0.84863999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="AU9">
+        <v>0.84006999999999998</v>
+      </c>
+      <c r="AV9">
+        <v>0.84782000000000002</v>
+      </c>
+      <c r="AW9">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="AY9">
+        <v>0.82667999999999997</v>
+      </c>
+      <c r="AZ9">
+        <v>0.82964000000000004</v>
+      </c>
+      <c r="BA9">
+        <v>0.84162000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.84848000000000001</v>
+      </c>
+      <c r="BC9">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="BD9">
+        <v>0.84741999999999995</v>
+      </c>
+      <c r="BE9">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="BF9">
+        <v>0.84504000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.84104000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>0.85765999999999998</v>
+      </c>
+      <c r="BI9">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>0.84892000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.85241999999999996</v>
+      </c>
+      <c r="BL9">
+        <v>0.83784000000000003</v>
+      </c>
+      <c r="BM9">
+        <v>0.82203999999999999</v>
+      </c>
+      <c r="BN9">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="BO9">
+        <v>0.81796000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.83277999999999996</v>
+      </c>
+      <c r="BQ9">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="BR9">
+        <v>0.83542000000000005</v>
+      </c>
+      <c r="BS9">
+        <v>0.83467999999999998</v>
+      </c>
+      <c r="BT9">
+        <v>0.83186000000000004</v>
+      </c>
+      <c r="BU9">
+        <v>0.85255999999999998</v>
+      </c>
+      <c r="BV9">
+        <v>0.85621999999999998</v>
+      </c>
+      <c r="BW9">
+        <v>0.83364000000000005</v>
+      </c>
+      <c r="BX9">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="BY9">
+        <v>0.82779999999999998</v>
+      </c>
+      <c r="BZ9">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="CA9">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="CB9">
+        <v>0.84084000000000003</v>
+      </c>
+      <c r="CC9">
+        <v>0.81996000000000002</v>
+      </c>
+      <c r="CD9">
+        <v>0.82287999999999994</v>
+      </c>
+      <c r="CE9">
+        <v>0.85016000000000003</v>
+      </c>
+      <c r="CF9">
+        <v>0.83818000000000004</v>
+      </c>
+      <c r="CG9">
+        <v>0.82791999999999999</v>
+      </c>
+      <c r="CH9">
+        <v>0.82523999999999997</v>
+      </c>
+      <c r="CI9">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="CJ9">
+        <v>0.82967999999999997</v>
+      </c>
+      <c r="CK9">
+        <v>0.83482000000000001</v>
+      </c>
+      <c r="CL9">
+        <v>0.82433999999999996</v>
+      </c>
+      <c r="CM9">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="CN9">
+        <v>0.85846</v>
+      </c>
+      <c r="CO9">
+        <v>0.84008000000000005</v>
+      </c>
+      <c r="CP9">
+        <v>0.82726</v>
+      </c>
+      <c r="CQ9">
+        <v>0.82676000000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.82911999999999997</v>
+      </c>
+      <c r="CS9">
+        <v>0.8367</v>
+      </c>
+      <c r="CT9">
+        <v>0.86046</v>
+      </c>
+      <c r="CU9">
+        <v>0.84052000000000004</v>
+      </c>
+      <c r="CV9">
+        <v>0.84492</v>
+      </c>
+      <c r="CW9">
+        <v>0.84027669999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.85662000000000005</v>
-      </c>
-      <c r="B5">
-        <v>0.85372000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.85516999999999999</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.83821999999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.83196000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.82245999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.85106000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.83304</v>
+      </c>
+      <c r="H10">
+        <v>0.81676000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.85124</v>
+      </c>
+      <c r="J10">
+        <v>0.84265999999999996</v>
+      </c>
+      <c r="K10">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="L10">
+        <v>0.83492</v>
+      </c>
+      <c r="M10">
+        <v>0.83772000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.82976000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.83772000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.83697999999999995</v>
+      </c>
+      <c r="Q10">
+        <v>0.82655999999999996</v>
+      </c>
+      <c r="R10">
+        <v>0.82567999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.82796000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.82486000000000004</v>
+      </c>
+      <c r="U10">
+        <v>0.82206000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.81598000000000004</v>
+      </c>
+      <c r="X10">
+        <v>0.83597999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.84618000000000004</v>
+      </c>
+      <c r="AA10">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="AB10">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AC10">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="AD10">
+        <v>0.83923999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="AF10">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="AG10">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="AH10">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="AI10">
+        <v>0.85058</v>
+      </c>
+      <c r="AJ10">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AK10">
+        <v>0.81796000000000002</v>
+      </c>
+      <c r="AL10">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="AM10">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="AO10">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="AP10">
+        <v>0.80506999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>0.83775999999999995</v>
+      </c>
+      <c r="AR10">
+        <v>0.83064000000000004</v>
+      </c>
+      <c r="AS10">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="AT10">
+        <v>0.82367999999999997</v>
+      </c>
+      <c r="AU10">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="AV10">
+        <v>0.82962000000000002</v>
+      </c>
+      <c r="AW10">
+        <v>0.82867999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AY10">
+        <v>0.81001999999999996</v>
+      </c>
+      <c r="AZ10">
+        <v>0.83338000000000001</v>
+      </c>
+      <c r="BA10">
+        <v>0.82603000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="BC10">
+        <v>0.84926000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.83562000000000003</v>
+      </c>
+      <c r="BE10">
+        <v>0.8417</v>
+      </c>
+      <c r="BF10">
+        <v>0.81918000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="BH10">
+        <v>0.83684000000000003</v>
+      </c>
+      <c r="BI10">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="BJ10">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="BK10">
+        <v>0.85053999999999996</v>
+      </c>
+      <c r="BL10">
+        <v>0.81147999999999998</v>
+      </c>
+      <c r="BM10">
+        <v>0.83372000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="BP10">
+        <v>0.83008000000000004</v>
+      </c>
+      <c r="BQ10">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="BR10">
+        <v>0.83245999999999998</v>
+      </c>
+      <c r="BS10">
+        <v>0.85962000000000005</v>
+      </c>
+      <c r="BT10">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="BU10">
+        <v>0.82576000000000005</v>
+      </c>
+      <c r="BV10">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.83596000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.84077999999999997</v>
+      </c>
+      <c r="BY10">
+        <v>0.84096000000000004</v>
+      </c>
+      <c r="BZ10">
+        <v>0.83994000000000002</v>
+      </c>
+      <c r="CA10">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.83755999999999997</v>
+      </c>
+      <c r="CC10">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="CD10">
+        <v>0.84241999999999995</v>
+      </c>
+      <c r="CE10">
+        <v>0.83575999999999995</v>
+      </c>
+      <c r="CF10">
+        <v>0.81298000000000004</v>
+      </c>
+      <c r="CG10">
+        <v>0.85306000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.81613999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="CK10">
+        <v>0.84138000000000002</v>
+      </c>
+      <c r="CL10">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="CM10">
+        <v>0.86495999999999995</v>
+      </c>
+      <c r="CN10">
+        <v>0.81988000000000005</v>
+      </c>
+      <c r="CO10">
+        <v>0.86097999999999997</v>
+      </c>
+      <c r="CP10">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="CR10">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="CS10">
+        <v>0.84294000000000002</v>
+      </c>
+      <c r="CT10">
+        <v>0.83587999999999996</v>
+      </c>
+      <c r="CU10">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="CV10">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="CW10">
+        <v>0.83562480000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.84408000000000005</v>
-      </c>
-      <c r="B6">
-        <v>0.84396000000000004</v>
-      </c>
-      <c r="C6">
-        <v>0.84401999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.83575999999999995</v>
-      </c>
-      <c r="B7">
-        <v>0.83843999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.83709999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.83453999999999995</v>
-      </c>
-      <c r="B8">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.85331999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.84723999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.83621999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.82484000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.84802</v>
+      </c>
+      <c r="H11">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.83038000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.83552000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.82745999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.82821999999999996</v>
+      </c>
+      <c r="N11">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.84511999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.84726000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.84228000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.82801999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.82081999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.81547999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.80798000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.82086000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.85697999999999996</v>
+      </c>
+      <c r="Z11">
+        <v>0.83364000000000005</v>
+      </c>
+      <c r="AA11">
+        <v>0.83272000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.82501999999999998</v>
+      </c>
+      <c r="AC11">
+        <v>0.83774000000000004</v>
+      </c>
+      <c r="AD11">
+        <v>0.82945999999999998</v>
+      </c>
+      <c r="AE11">
+        <v>0.84182000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.82847999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.83198000000000005</v>
+      </c>
+      <c r="AI11">
+        <v>0.81481999999999999</v>
+      </c>
+      <c r="AJ11">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="AK11">
+        <v>0.84082000000000001</v>
+      </c>
+      <c r="AL11">
+        <v>0.83106000000000002</v>
+      </c>
+      <c r="AM11">
+        <v>0.82296000000000002</v>
+      </c>
+      <c r="AN11">
+        <v>0.80654000000000003</v>
+      </c>
+      <c r="AO11">
+        <v>0.82287999999999994</v>
+      </c>
+      <c r="AP11">
+        <v>0.81766000000000005</v>
+      </c>
+      <c r="AQ11">
+        <v>0.82574000000000003</v>
+      </c>
+      <c r="AR11">
+        <v>0.84331999999999996</v>
+      </c>
+      <c r="AS11">
+        <v>0.81735999999999998</v>
+      </c>
+      <c r="AT11">
+        <v>0.82765999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>0.86872000000000005</v>
+      </c>
+      <c r="AV11">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="AX11">
+        <v>0.81945999999999997</v>
+      </c>
+      <c r="AY11">
+        <v>0.82776000000000005</v>
+      </c>
+      <c r="AZ11">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="BA11">
+        <v>0.81342000000000003</v>
+      </c>
+      <c r="BB11">
+        <v>0.82516</v>
+      </c>
+      <c r="BC11">
+        <v>0.82776000000000005</v>
+      </c>
+      <c r="BD11">
+        <v>0.82577999999999996</v>
+      </c>
+      <c r="BE11">
+        <v>0.83455999999999997</v>
+      </c>
+      <c r="BF11">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="BG11">
+        <v>0.84106000000000003</v>
+      </c>
+      <c r="BH11">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="BI11">
+        <v>0.84936</v>
+      </c>
+      <c r="BJ11">
+        <v>0.84208000000000005</v>
+      </c>
+      <c r="BK11">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="BM11">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="BN11">
+        <v>0.82194</v>
+      </c>
+      <c r="BO11">
+        <v>0.84792000000000001</v>
+      </c>
+      <c r="BP11">
+        <v>0.81149000000000004</v>
+      </c>
+      <c r="BQ11">
+        <v>0.81686000000000003</v>
+      </c>
+      <c r="BR11">
         <v>0.82857999999999998</v>
       </c>
-      <c r="C8">
-        <v>0.83155999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.82767999999999997</v>
-      </c>
-      <c r="B9">
-        <v>0.85784000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.84275999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.81133999999999995</v>
-      </c>
-      <c r="B10">
-        <v>0.84250000000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.82691999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.85951999999999995</v>
-      </c>
-      <c r="B11">
-        <v>0.84045999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.84999000000000002</v>
+      <c r="BS11">
+        <v>0.83213999999999999</v>
+      </c>
+      <c r="BT11">
+        <v>0.82384000000000002</v>
+      </c>
+      <c r="BU11">
+        <v>0.81928000000000001</v>
+      </c>
+      <c r="BV11">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="BW11">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="BX11">
+        <v>0.84448000000000001</v>
+      </c>
+      <c r="BY11">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="BZ11">
+        <v>0.82586000000000004</v>
+      </c>
+      <c r="CA11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="CB11">
+        <v>0.84272000000000002</v>
+      </c>
+      <c r="CC11">
+        <v>0.82443999999999995</v>
+      </c>
+      <c r="CD11">
+        <v>0.83323999999999998</v>
+      </c>
+      <c r="CE11">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="CF11">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="CG11">
+        <v>0.82498000000000005</v>
+      </c>
+      <c r="CH11">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="CI11">
+        <v>0.84116000000000002</v>
+      </c>
+      <c r="CJ11">
+        <v>0.83504</v>
+      </c>
+      <c r="CK11">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.84614</v>
+      </c>
+      <c r="CM11">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="CN11">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="CO11">
+        <v>0.84114</v>
+      </c>
+      <c r="CP11">
+        <v>0.83294000000000001</v>
+      </c>
+      <c r="CQ11">
+        <v>0.83255999999999997</v>
+      </c>
+      <c r="CR11">
+        <v>0.86636000000000002</v>
+      </c>
+      <c r="CS11">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="CT11">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="CU11">
+        <v>0.82538</v>
+      </c>
+      <c r="CV11">
+        <v>0.86914000000000002</v>
+      </c>
+      <c r="CW11">
+        <v>0.83455950000000001</v>
       </c>
     </row>
   </sheetData>
